--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="по возрастанию" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>Размер массива</t>
   </si>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,9 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,6 +230,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -243,12 +243,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -302,6 +305,29 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'по возрастанию'!$A$2:$B$11</c:f>
@@ -372,32 +398,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4002</c:v>
+                  <c:v>9472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15563</c:v>
+                  <c:v>46526</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35048</c:v>
+                  <c:v>50184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62499</c:v>
+                  <c:v>82142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A217-4CB8-8C65-2E6C22B62E4B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -439,6 +470,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -479,7 +511,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -533,6 +565,29 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'по возрастанию'!$A$2:$B$11</c:f>
@@ -603,25 +658,25 @@
                   <c:v>13356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2928286361</c:v>
+                  <c:v>15813188249</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4477609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2620958355</c:v>
+                  <c:v>62750500499</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9434397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3373984277</c:v>
+                  <c:v>140812937749</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15036873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>892396831</c:v>
+                  <c:v>250000499999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19846589</c:v>
@@ -629,6 +684,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D4D-4C26-A7CC-129CE3AC4981}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -651,7 +711,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -692,7 +752,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -746,6 +806,29 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'по возрастанию'!$A$2:$B$11</c:f>
@@ -842,6 +925,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE77-462B-9732-352E91B18DBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -864,6 +952,1491 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172556288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172556288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217191424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время выполнения (мс)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'по убыванию'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время выполнения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'по убыванию'!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>125750</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>250500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>375250</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'по убыванию'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5ED-405E-855A-D65F20D44D81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="214840320"/>
+        <c:axId val="37910144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="214840320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер массива</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37910144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37910144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214840320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кол-во сравнений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'по убыванию'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во сравнений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'по возрастанию'!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>125750</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>250500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>375250</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'по убыванию'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15813188249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4477609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62750500499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9434397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140812937749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15036873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000499999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19846589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC9A-4FA2-A202-FA1097F75F3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170170368"/>
+        <c:axId val="11589248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170170368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="11589248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11589248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170170368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кол-во перемещений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'по возрастанию'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во перемещений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'по возрастанию'!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>125750</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>250500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>375250</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'по возрастанию'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1045675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2211144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>375249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3464307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>499999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4666736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AF9-4B5D-A6C8-782756985A6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="217191424"/>
+        <c:axId val="172556288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217191424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172556288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172556288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217191424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время выполнения (мс)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>случайно!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время выполнения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'по возрастанию'!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>125750</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>250500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>375250</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>случайно!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C855-4B0F-9D30-6CECC6538690}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="214840320"/>
+        <c:axId val="37910144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="214840320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер массива</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37910144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37910144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214840320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кол-во сравнений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>случайно!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во сравнений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'по возрастанию'!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>125750</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>250500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>375250</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>случайно!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15813188249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4555722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62750500499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9641604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140812937749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14790331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000499999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19608808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F57-4965-8D1A-BE3209C17757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170170368"/>
+        <c:axId val="11589248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170170368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="11589248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11589248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170170368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кол-во перемещений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>случайно!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во перемещений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'по возрастанию'!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>выбором</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>быстрая</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>125750</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>250500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>375250</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>случайно!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1348438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>375249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>499999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2916452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8352-4F33-9FD8-8242E92C829E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="217191424"/>
+        <c:axId val="172556288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217191424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1000,6 +2573,208 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20734</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19853</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583948</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>189453</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585694</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>52237</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20734</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19853</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583948</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>181833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585694</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>52237</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1043,7 +2818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1078,7 +2853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1289,20 +3064,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,306 +3094,306 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1000</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1000999</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>13356</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>767</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>125750</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
-        <v>4002</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2928286361</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C4" s="7">
+        <v>9472</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15813188249</v>
+      </c>
+      <c r="E4" s="9">
         <v>125749</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4477609</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1045675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>250500</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9">
-        <v>4477609</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1045675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>250500</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="7">
+        <v>46526</v>
+      </c>
+      <c r="D6" s="8">
+        <v>62750500499</v>
+      </c>
+      <c r="E6" s="9">
+        <v>250499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9434397</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2211144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>375250</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>15563</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2620958355</v>
-      </c>
-      <c r="E6" s="10">
-        <v>250499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="7">
+        <v>50184</v>
+      </c>
+      <c r="D8" s="8">
+        <v>140812937749</v>
+      </c>
+      <c r="E8" s="9">
+        <v>375249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9">
-        <v>9434397</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2211144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>375250</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15036873</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3464307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>500000</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
-        <v>35048</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3373984277</v>
-      </c>
-      <c r="E8" s="10">
-        <v>375249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="C10" s="7">
+        <v>82142</v>
+      </c>
+      <c r="D10" s="8">
+        <v>250000499999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>499999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9">
-        <v>15036873</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3464307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>500000</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>62499</v>
-      </c>
-      <c r="D10" s="9">
-        <v>892396831</v>
-      </c>
-      <c r="E10" s="10">
-        <v>499999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8">
         <v>19846589</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>4666736</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -1639,24 +3414,702 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1000999</v>
+      </c>
+      <c r="E2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>14361</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>125750</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4269</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15813188249</v>
+      </c>
+      <c r="E4" s="9">
+        <v>125749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4477609</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1045675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>250500</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>16895</v>
+      </c>
+      <c r="D6" s="8">
+        <v>62750500499</v>
+      </c>
+      <c r="E6" s="9">
+        <v>250499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9434397</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2211144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>375250</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>37995</v>
+      </c>
+      <c r="D8" s="8">
+        <v>140812937749</v>
+      </c>
+      <c r="E8" s="9">
+        <v>375249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15036873</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3464307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>500000</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>67546</v>
+      </c>
+      <c r="D10" s="8">
+        <v>250000499999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>499999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8">
+        <v>19846589</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4666736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1000999</v>
+      </c>
+      <c r="E2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>24503</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>125750</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4270</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15813188249</v>
+      </c>
+      <c r="E4" s="9">
+        <v>125749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4555722</v>
+      </c>
+      <c r="E5" s="9">
+        <v>630178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>250500</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>16951</v>
+      </c>
+      <c r="D6" s="8">
+        <v>62750500499</v>
+      </c>
+      <c r="E6" s="9">
+        <v>250499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9641604</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1348438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>375250</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>37964</v>
+      </c>
+      <c r="D8" s="8">
+        <v>140812937749</v>
+      </c>
+      <c r="E8" s="9">
+        <v>375249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8">
+        <v>14790331</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2100646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>500000</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>67615</v>
+      </c>
+      <c r="D10" s="8">
+        <v>250000499999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>499999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8">
+        <v>19608808</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2916452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>